--- a/Database Information.xlsx
+++ b/Database Information.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyek Setio\Codingan\Desainmu.id\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7089CD-16AD-4048-AE52-8E4A01E559B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{842B90CE-5EE1-47FB-A056-AD84FF755087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{13DFF84B-4255-4974-B539-F3528D896F19}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="51">
   <si>
     <t>User Type</t>
   </si>
@@ -72,9 +72,6 @@
     <t>Feedback</t>
   </si>
   <si>
-    <t>Bisa melihat produk dan komentar di dalalam produk tersebut (Hasmany)</t>
-  </si>
-  <si>
     <t>Bisa melihat feedback dari user saja</t>
   </si>
   <si>
@@ -93,9 +90,6 @@
     <t>Super Admin bisa menerima chat dari role Admin dan User</t>
   </si>
   <si>
-    <t>Bisa melakukan semua method akan tetapi hanya berpengaruh ke role Admin, dan User saja. Khusus role User, Super Admin bisa mengubah status role User menjadi role Admin.</t>
-  </si>
-  <si>
     <t>Read, Delete</t>
   </si>
   <si>
@@ -184,6 +178,15 @@
   </si>
   <si>
     <t>Create, Read, Delete</t>
+  </si>
+  <si>
+    <t>Read, Update, Delete</t>
+  </si>
+  <si>
+    <t>Bisa melakukan semua method selain Create akan tetapi hanya berpengaruh ke role Admin, dan User saja. Khusus role User, Super Admin bisa mengubah status role User menjadi role Admin.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bisa melihat produk di dalam produk tersebut </t>
   </si>
 </sst>
 </file>
@@ -659,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBEB1A49-1C60-48DA-8253-734FB16C0C11}">
   <dimension ref="B2:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="E2" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -673,7 +676,7 @@
   <sheetData>
     <row r="2" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -710,13 +713,13 @@
         <v>5</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="11"/>
       <c r="C6" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>7</v>
@@ -731,10 +734,10 @@
         <v>9</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -746,25 +749,25 @@
         <v>5</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="11"/>
       <c r="C9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="11"/>
       <c r="C10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>7</v>
@@ -776,18 +779,18 @@
     <row r="11" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="12"/>
       <c r="C11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>4</v>
@@ -796,19 +799,19 @@
         <v>10</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="11"/>
       <c r="C13" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -817,10 +820,10 @@
         <v>9</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -829,51 +832,51 @@
         <v>11</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="11"/>
       <c r="C16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="11"/>
       <c r="C17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="12"/>
       <c r="C18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>4</v>
@@ -882,19 +885,19 @@
         <v>5</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="11"/>
       <c r="C20" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -903,10 +906,10 @@
         <v>9</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -915,51 +918,51 @@
         <v>11</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="11"/>
       <c r="C23" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="11"/>
       <c r="C24" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="12"/>
       <c r="C25" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>4</v>
@@ -968,19 +971,19 @@
         <v>5</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="11"/>
       <c r="C27" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1001,28 +1004,28 @@
         <v>11</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="11"/>
       <c r="C30" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="11"/>
       <c r="C31" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>7</v>
@@ -1034,7 +1037,7 @@
     <row r="32" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="12"/>
       <c r="C32" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>7</v>
@@ -1045,40 +1048,40 @@
     </row>
     <row r="33" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="34" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="7"/>
       <c r="C34" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="35" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="7"/>
       <c r="C35" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
